--- a/Instructions_Encoding.xlsx
+++ b/Instructions_Encoding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\Personal_Projects\MIPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684038E3-1D95-4AB0-BDDA-191D515B358A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E98946-7824-4F7D-BFDD-AE2B20065102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13992" yWindow="6168" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>Instruction</t>
   </si>
@@ -78,12 +78,6 @@
     <t>set less than unsigned</t>
   </si>
   <si>
-    <t>load high</t>
-  </si>
-  <si>
-    <t>load low</t>
-  </si>
-  <si>
     <t>load byte</t>
   </si>
   <si>
@@ -183,12 +177,6 @@
     <t>xori $d, $s, i</t>
   </si>
   <si>
-    <t>lhi $t, i</t>
-  </si>
-  <si>
-    <t>llo $t, i</t>
-  </si>
-  <si>
     <t>slti $t, $s, i</t>
   </si>
   <si>
@@ -229,6 +217,39 @@
   </si>
   <si>
     <t>ooooooss sssttttt iiiiiiii iiiiiiii</t>
+  </si>
+  <si>
+    <t>operand1 = $s</t>
+  </si>
+  <si>
+    <t>operand2 = $t</t>
+  </si>
+  <si>
+    <t>destination = $d</t>
+  </si>
+  <si>
+    <t>operand2 = i</t>
+  </si>
+  <si>
+    <t>add and addu do the same thing</t>
+  </si>
+  <si>
+    <t>add raises trap when overflow and addu doesn't</t>
+  </si>
+  <si>
+    <t>i is always sign extended before addition</t>
+  </si>
+  <si>
+    <t>load upper immediate</t>
+  </si>
+  <si>
+    <t>lui $t, i</t>
+  </si>
+  <si>
+    <t>to do: implement overflow for</t>
+  </si>
+  <si>
+    <t>add, addu, addi, addiu, sub, subu, subi, subiu</t>
   </si>
 </sst>
 </file>
@@ -236,7 +257,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="000000"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -263,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -362,42 +383,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,23 +709,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="12"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,431 +741,461 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4">
+        <v>100001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4">
+        <v>100100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7">
+      <c r="C6" s="8"/>
+      <c r="D6" s="4">
+        <v>100111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4">
+        <v>100101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4">
+        <v>100010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4">
+        <v>100011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4">
+        <v>100110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4">
+        <v>101010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4">
+        <v>101001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1100</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1101</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1110</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1111</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1010</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="4">
+        <v>100000</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="4">
+        <v>100100</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="4">
         <v>100001</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7">
-        <v>100100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7">
-        <v>100111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="4">
         <v>100101</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7">
-        <v>100010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="4">
         <v>100011</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7">
-        <v>100110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="4">
+        <v>101000</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="4">
         <v>101001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1001</v>
-      </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1100</v>
-      </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1101</v>
-      </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1110</v>
-      </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="7">
-        <v>11001</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="7">
-        <v>11000</v>
-      </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1010</v>
-      </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1001</v>
-      </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="7">
-        <v>100000</v>
-      </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="7">
-        <v>100100</v>
-      </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="7">
-        <v>100001</v>
-      </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="7">
-        <v>100101</v>
-      </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="7">
-        <v>100011</v>
-      </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="7">
-        <v>101000</v>
-      </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="7">
-        <v>101001</v>
-      </c>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="7">
+      <c r="C36" s="4">
         <v>101011</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Instructions_Encoding.xlsx
+++ b/Instructions_Encoding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\Personal_Projects\MIPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E98946-7824-4F7D-BFDD-AE2B20065102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A6FD22-04BB-4A93-A085-5CBE0C8263E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13992" yWindow="6168" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>Instruction</t>
   </si>
@@ -174,9 +174,6 @@
     <t>ori $t, $s, i</t>
   </si>
   <si>
-    <t>xori $d, $s, i</t>
-  </si>
-  <si>
     <t>slti $t, $s, i</t>
   </si>
   <si>
@@ -250,6 +247,12 @@
   </si>
   <si>
     <t>add, addu, addi, addiu, sub, subu, subi, subiu</t>
+  </si>
+  <si>
+    <t>xori $t, $s, i</t>
+  </si>
+  <si>
+    <t>destination = $t</t>
   </si>
 </sst>
 </file>
@@ -276,12 +279,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -396,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,6 +422,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,7 +438,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +722,8 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,14 +752,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -759,14 +769,14 @@
       <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4">
         <v>100000</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -776,12 +786,12 @@
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4">
         <v>100001</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -791,15 +801,15 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="4">
         <v>100100</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -809,15 +819,15 @@
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="4">
         <v>100111</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -827,12 +837,12 @@
       <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="4">
         <v>100101</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -842,7 +852,7 @@
       <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="4">
         <v>0</v>
       </c>
@@ -854,7 +864,7 @@
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="4">
         <v>100</v>
       </c>
@@ -866,7 +876,7 @@
       <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4">
         <v>11</v>
       </c>
@@ -878,7 +888,7 @@
       <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="4">
         <v>111</v>
       </c>
@@ -890,7 +900,7 @@
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="4">
         <v>10</v>
       </c>
@@ -902,7 +912,7 @@
       <c r="B13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="4">
         <v>110</v>
       </c>
@@ -914,7 +924,7 @@
       <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="4">
         <v>100010</v>
       </c>
@@ -926,7 +936,7 @@
       <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="4">
         <v>100011</v>
       </c>
@@ -938,7 +948,7 @@
       <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="4">
         <v>100110</v>
       </c>
@@ -948,9 +958,9 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="4">
         <v>101010</v>
       </c>
@@ -960,9 +970,9 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="4">
         <v>101001</v>
       </c>
@@ -974,14 +984,14 @@
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -996,10 +1006,10 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1014,10 +1024,10 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1044,7 +1054,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1052,29 +1062,29 @@
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4">
         <v>1110</v>
       </c>
       <c r="D25" s="4"/>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="C26" s="4">
         <v>1111</v>
       </c>
       <c r="D26" s="4"/>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1082,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="4">
         <v>1010</v>
@@ -1094,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4">
         <v>1001</v>
@@ -1102,59 +1112,59 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="14">
+        <v>100000</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="4">
-        <v>100000</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="14">
+        <v>100100</v>
+      </c>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="4">
-        <v>100100</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="14">
+        <v>100001</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="4">
-        <v>100001</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="C32" s="14">
         <v>100101</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4">
         <v>100011</v>
@@ -1162,35 +1172,35 @@
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="14">
+        <v>101000</v>
+      </c>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="4">
-        <v>101000</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="C35" s="14">
         <v>101001</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="4">
         <v>101011</v>

--- a/Instructions_Encoding.xlsx
+++ b/Instructions_Encoding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\Personal_Projects\MIPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A6FD22-04BB-4A93-A085-5CBE0C8263E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A210AC-1427-437E-8171-0464AE23CB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,8 +722,8 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Instructions_Encoding.xlsx
+++ b/Instructions_Encoding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\Personal_Projects\MIPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A210AC-1427-437E-8171-0464AE23CB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD113E9-A38B-4624-9B82-2E6CC999733F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>Instruction</t>
   </si>
@@ -253,6 +254,9 @@
   </si>
   <si>
     <t>destination = $t</t>
+  </si>
+  <si>
+    <t>0000000000000001 0001100000100000</t>
   </si>
 </sst>
 </file>
@@ -423,6 +427,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,7 +443,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +727,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,12 +756,12 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
       <c r="G2" t="s">
         <v>61</v>
       </c>
@@ -769,7 +773,7 @@
       <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4">
@@ -786,7 +790,7 @@
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4">
         <v>100001</v>
       </c>
@@ -801,7 +805,7 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="4">
         <v>100100</v>
       </c>
@@ -819,7 +823,7 @@
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4">
         <v>100111</v>
       </c>
@@ -837,7 +841,7 @@
       <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4">
         <v>100101</v>
       </c>
@@ -852,7 +856,7 @@
       <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="4">
         <v>0</v>
       </c>
@@ -864,7 +868,7 @@
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="4">
         <v>100</v>
       </c>
@@ -876,7 +880,7 @@
       <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="4">
         <v>11</v>
       </c>
@@ -888,9 +892,12 @@
       <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="4">
         <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -900,7 +907,7 @@
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="4">
         <v>10</v>
       </c>
@@ -912,7 +919,7 @@
       <c r="B13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="4">
         <v>110</v>
       </c>
@@ -924,7 +931,7 @@
       <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="4">
         <v>100010</v>
       </c>
@@ -936,7 +943,7 @@
       <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4">
         <v>100011</v>
       </c>
@@ -948,7 +955,7 @@
       <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="4">
         <v>100110</v>
       </c>
@@ -960,7 +967,7 @@
       <c r="B17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="4">
         <v>101010</v>
       </c>
@@ -972,7 +979,7 @@
       <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="4">
         <v>101001</v>
       </c>
@@ -984,12 +991,12 @@
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="G20" t="s">
         <v>62</v>
       </c>
@@ -1112,52 +1119,52 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="9">
         <v>100000</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="9">
         <v>100100</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="9">
         <v>100001</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="9">
         <v>100101</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -1172,28 +1179,28 @@
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="9">
         <v>101000</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="9">
         <v>101001</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
